--- a/InputFiles/CCDI/TC02_CCDI_phs000469_Sex-NtReprtd_Sampleanatomic-C42.0Blood-SampleTumorstat-Normal.xlsx
+++ b/InputFiles/CCDI/TC02_CCDI_phs000469_Sex-NtReprtd_Sampleanatomic-C42.0Blood-SampleTumorstat-Normal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\03-31-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git2/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FFB0CB-C36B-4EB7-B6D2-0A22BFEB72B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B37EB-84F5-9E44-A697-70D85C7F231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="31560" windowHeight="17740" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,159 +102,369 @@
 left join funding f on s.study_id = f.study </t>
   </si>
   <si>
-    <t>with file_data as (
-select file_name, data_category, file_type, file_size, file_access, file_description,"study.id" studyid, "participant.id" as participantid from df_clinical_measure_file )
-SELECT fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type" ,
-        CASE     
-    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN fd.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(fd.file_size, 2) || ' Bytes'
-        END
-END AS "File Size",
-fd.file_access AS "File Access", std.dbgap_accession AS "Study ID", fd.participantid AS "Participant ID", null as "Sample ID"
-FROM 
-    df_study std
- LEFT JOIN  
-    file_data fd ON std.id = fd.studyid
-WHERE 
-    std.dbgap_accession = 'phs000469'</t>
-  </si>
-  <si>
     <t>TC02_CCDI_phs000469_Sex-NtReprtd_Sampleanatomic-C42.0Blood-SampleTumorstat-Normal_WebData.xlsx</t>
   </si>
   <si>
     <t>TC02_CCDI_phs000469_Sex-NtReprtd_Sampleanatomic-C42.0Blood-SampleTumorstat-Normal_TSVData.xlsx</t>
   </si>
   <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    (COUNT(DISTINCT cmf.id)) AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_clinical_measure_file cmf ON std.id = cmf."study.id"
-LEFT JOIN 
-  df_diagnosis dgn ON prt.id = dgn."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000469' and prt.sex_at_birth= 'Not Reported' and smp.anatomic_site= 'C42.0 : Blood' and smp.sample_tumor_status = 'Normal';</t>
-  </si>
-  <si>
-    <t>with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ),
-diagnosis4 as (
-  select distinct "participant.id", diagnosis, disease_phase
-  from df_diagnosis
-  where "participant.id" is not null
-),
-treatment1 as (select trt."participant.id",trt.treatment_type from  df_treatment trt  where trt.treatment_type is not null)
+    <t>WITH cg_map AS (
+  SELECT id AS consent_row_id, "study.id" AS study_row_id
+  FROM df_consent_group
+),
+prt AS (
+  SELECT
+    p.participant_id,
+    p.id           AS participant_row_id,
+    cg.study_row_id,
+    UPPER(TRIM(COALESCE(p.sex_at_birth,''))) AS sex_u
+  FROM df_participant p
+  LEFT JOIN cg_map cg
+    ON cg.consent_row_id = p."consent_group.id"
+),
+smp AS (
+  SELECT
+    s.sample_id,
+    COALESCE(s.anatomic_site, '') AS sample_anatomic_site,
+    CASE
+      WHEN COALESCE(CAST(s.participant_age_at_collection AS TEXT), '') IN ('', '-999')
+        THEN 'Not Reported'
+      ELSE CAST(s.participant_age_at_collection AS TEXT)
+    END AS age_at_collection_days,
+    CASE WHEN TRIM(COALESCE(s.sample_tumor_status,'')) = '' THEN 'Not Reported'
+         ELSE s.sample_tumor_status END AS sample_tumor_status,
+    CASE WHEN TRIM(COALESCE(s.tumor_classification,'')) = '' THEN 'Not Reported'
+         ELSE s.tumor_classification END AS sample_tumor_classification,
+    s.id               AS sample_row_id,
+    s."participant.id" AS participant_row_id,
+    UPPER(TRIM(COALESCE(s.anatomic_site,'')))       AS anatomic_site_u,
+    UPPER(TRIM(COALESCE(s.sample_tumor_status,''))) AS tumor_status_u
+  FROM df_sample s
+),
+-- sample-level diagnosis only (per UI)
+diag_s_names AS (
+  SELECT y."sample.id" AS sample_row_id,
+         GROUP_CONCAT(y.diagnosis, ';') AS sample_diag
+  FROM (
+    SELECT DISTINCT "sample.id", COALESCE(diagnosis,'') AS diagnosis
+    FROM df_diagnosis
+    WHERE "sample.id" IS NOT NULL
+  ) y
+  GROUP BY y."sample.id"
+),
+diag_s_cat AS (
+  SELECT y."sample.id" AS sample_row_id,
+         GROUP_CONCAT(y.diagnosis_category, ';') AS sample_diag_cat
+  FROM (
+    SELECT DISTINCT "sample.id", COALESCE(diagnosis_category,'') AS diagnosis_category
+    FROM df_diagnosis
+    WHERE "sample.id" IS NOT NULL
+  ) y
+  GROUP BY y."sample.id"
+)
 SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	trt1.treatment_type AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    diagnosis4 dgn4 ON prt.id = dgn4."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    treatment1 trt1 ON prt.id = trt1."participant.id"
- WHERE 
-    std.dbgap_accession = 'phs000469' and prt.sex_at_birth= 'Not Reported' and smp.anatomic_site= 'C42.0 : Blood' and smp.sample_tumor_status = 'Normal'
-ORDER BY 
-    prt.participant_id ASC 
-;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    smp.anatomic_site AS "Sample Anatomic Site",
-    COALESCE(
-        CASE 
-            WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' 
-            ELSE smp.participant_age_at_collection 
-        END, 
-        0
-    ) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
-    Null AS "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000469' 
-    AND prt.sex_at_birth = 'Not Reported'
-   AND smp.anatomic_site = 'C42.0 : Blood'
-  AND smp.sample_tumor_status = 'Normal'
-    AND smp.sample_id IS NOT NULL
-ORDER BY 
-    smp.sample_id ASC;</t>
+  smp.sample_id                                   AS "Sample ID",
+  prt.participant_id                              AS "Participant ID",
+  std.dbgap_accession                             AS "Study ID",
+  smp.sample_anatomic_site                        AS "Sample Anatomic Site",
+  smp.age_at_collection_days                      AS "Age at Sample Collection (days)",
+  smp.sample_tumor_status                         AS "Sample Tumor Status",
+  smp.sample_tumor_classification                 AS "Sample Tumor Classification",
+  COALESCE(dsn.sample_diag, '')                   AS "Sample Diagnosis",
+  COALESCE(dsc.sample_diag_cat, '')               AS "Diagnosis Category"
+FROM df_study std
+JOIN prt
+  ON std.id = prt.study_row_id
+JOIN smp
+  ON smp.participant_row_id = prt.participant_row_id
+LEFT JOIN diag_s_names dsn
+  ON dsn.sample_row_id = smp.sample_row_id
+LEFT JOIN diag_s_cat dsc
+  ON dsc.sample_row_id = smp.sample_row_id
+WHERE UPPER(TRIM(std.dbgap_accession)) LIKE UPPER(TRIM('phs000469%'))
+  -- Sex filter (Not Reported incl. blanks)
+  AND (prt.sex_u = 'NOT REPORTED' OR TRIM(COALESCE(prt.sex_u,'')) = '')
+  -- Sample filters
+  AND smp.anatomic_site_u = UPPER(TRIM('C42.0 : Blood'))
+  AND smp.tumor_status_u  = UPPER(TRIM('Normal'))
+  AND smp.sample_id IS NOT NULL
+ORDER BY smp.sample_id ASC;</t>
+  </si>
+  <si>
+    <t>WITH cg_map AS (
+  SELECT id AS consent_row_id, "study.id" AS study_row_id
+  FROM df_consent_group
+),
+prt AS (
+  SELECT
+    p.participant_id,
+    p.id           AS participant_row_id,
+    cg.study_row_id,
+    UPPER(TRIM(COALESCE(p.sex_at_birth,''))) AS sex_u
+  FROM df_participant p
+  LEFT JOIN cg_map cg
+    ON cg.consent_row_id = p."consent_group.id"
+),
+-- samples to enforce TC02 cohort
+smp AS (
+  SELECT
+    s.id               AS sample_row_id,
+    s."participant.id" AS participant_row_id,
+    UPPER(TRIM(COALESCE(s.anatomic_site,'')))       AS anatomic_site_u,
+    UPPER(TRIM(COALESCE(s.sample_tumor_status,''))) AS tumor_status_u
+  FROM df_sample s
+),
+cmf AS (
+  SELECT
+    clinical_measure_file_id,
+    file_name,
+    REPLACE(COALESCE(data_category, ''), ';', ', ') AS data_category,
+    COALESCE(file_description, '')                  AS file_description,
+    COALESCE(file_type, '')                         AS file_type,
+    COALESCE(file_access, '')                       AS file_access,
+    COALESCE(file_size, 0)                          AS file_size,
+    "study.id"                                      AS study_row_id,
+    "participant.id"                                AS participant_row_id
+  FROM df_clinical_measure_file
+)
+SELECT DISTINCT
+  cmf.file_name AS "File Name",
+  cmf.data_category AS "Data Category",
+  cmf.file_description AS "File Description",
+  cmf.file_type AS "File Type",
+  CASE
+    WHEN cmf.file_size &gt;= 1024 * 1024 * 1024 THEN
+      CASE WHEN ROUND(cmf.file_size / (1024.0 * 1024.0 * 1024.0), 2)
+                 = CAST(ROUND(cmf.file_size / (1024.0 * 1024.0 * 1024.0), 2) AS INTEGER)
+           THEN CAST(ROUND(cmf.file_size / (1024.0 * 1024.0 * 1024.0), 2) AS INTEGER) || ' GB'
+           ELSE ROUND(cmf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' END
+    WHEN cmf.file_size &gt;= 1024 * 1024 THEN
+      CASE WHEN ROUND(cmf.file_size / (1024.0 * 1024.0), 2)
+                 = CAST(ROUND(cmf.file_size / (1024.0 * 1024.0), 2) AS INTEGER)
+           THEN CAST(ROUND(cmf.file_size / (1024.0 * 1024.0), 2) AS INTEGER) || ' MB'
+           ELSE ROUND(cmf.file_size / (1024.0 * 1024.0), 2) || ' MB' END
+    WHEN cmf.file_size &gt;= 1024 THEN
+      CASE WHEN ROUND(cmf.file_size / 1024.0, 2)
+                 = CAST(ROUND(cmf.file_size / 1024.0, 2) AS INTEGER)
+           THEN CAST(ROUND(cmf.file_size / 1024.0, 2) AS INTEGER) || ' KB'
+           ELSE ROUND(cmf.file_size / 1024.0, 2) || ' KB' END
+    ELSE CAST(cmf.file_size AS TEXT) || ' B'
+  END AS "File Size",
+  cmf.file_access AS "Access",
+  std.dbgap_accession AS "Study ID",
+  '' AS "Participant ID",
+  '' AS "Sample ID"
+FROM df_study std
+JOIN prt
+  ON std.id = prt.study_row_id
+JOIN cmf
+  ON cmf.study_row_id = std.id   -- study-level files to match UI
+WHERE UPPER(TRIM(std.dbgap_accession)) LIKE UPPER(TRIM('phs000469%'))
+  -- Restrict to TC02 cohort: at least one sample per participant meets the sample criteria
+  AND EXISTS (
+        SELECT 1
+        FROM smp
+        WHERE smp.participant_row_id = prt.participant_row_id
+          AND smp.anatomic_site_u = UPPER(TRIM('C42.0 : Blood'))
+          AND smp.tumor_status_u  = UPPER(TRIM('Normal'))
+      )
+  -- Sex filter (Not Reported incl. blanks)
+  AND (prt.sex_u = 'NOT REPORTED' OR TRIM(COALESCE(prt.sex_u,'')) = '')
+ORDER BY cmf.file_name ASC;</t>
+  </si>
+  <si>
+    <t>WITH cg_map AS (
+  SELECT id AS consent_row_id, "study.id" AS study_row_id
+  FROM df_consent_group
+),
+prt AS (
+  SELECT
+    p.participant_id,
+    p.id           AS participant_row_id,
+    cg.study_row_id,
+    UPPER(TRIM(COALESCE(p.sex_at_birth,''))) AS sex_u
+  FROM df_participant p
+  LEFT JOIN cg_map cg
+    ON cg.consent_row_id = p."consent_group.id"
+),
+smp AS (
+  SELECT
+    s.sample_id,
+    s."participant.id" AS participant_row_id,
+    UPPER(TRIM(COALESCE(s.anatomic_site,'')))       AS anatomic_site_u,
+    UPPER(TRIM(COALESCE(s.sample_tumor_status,''))) AS tumor_status_u
+  FROM df_sample s
+),
+cmf AS (
+  SELECT
+    clinical_measure_file_id,
+    "study.id" AS study_row_id
+  FROM df_clinical_measure_file
+)
+SELECT
+  COUNT(DISTINCT std.dbgap_accession)          AS "Studies",
+  COUNT(DISTINCT prt.participant_id)           AS "Participants",
+  COUNT(DISTINCT smp.sample_id)                AS "Samples",
+  COUNT(DISTINCT cmf.clinical_measure_file_id) AS "Files"
+FROM df_study std
+JOIN prt
+  ON std.id = prt.study_row_id
+-- only samples from the filtered participants &amp; matching sample criteria
+LEFT JOIN smp
+  ON smp.participant_row_id = prt.participant_row_id
+     AND smp.anatomic_site_u = UPPER(TRIM('C42.0 : Blood'))
+     AND smp.tumor_status_u  = UPPER(TRIM('Normal'))
+-- study-level file counting
+LEFT JOIN cmf
+  ON cmf.study_row_id = std.id
+WHERE UPPER(TRIM(std.dbgap_accession)) LIKE UPPER(TRIM('phs000469%'))
+  AND (prt.sex_u = 'NOT REPORTED' OR TRIM(COALESCE(prt.sex_u,'')) = '')
+  AND EXISTS (
+        SELECT 1
+        FROM smp s2
+        WHERE s2.participant_row_id = prt.participant_row_id
+          AND s2.anatomic_site_u = UPPER(TRIM('C42.0 : Blood'))
+          AND s2.tumor_status_u  = UPPER(TRIM('Normal'))
+      );</t>
+  </si>
+  <si>
+    <t>WITH cg_map AS (
+  SELECT id AS consent_row_id, "study.id" AS study_row_id
+  FROM df_consent_group
+),
+prt AS (
+  SELECT
+    p.participant_id,
+    COALESCE(p.sex_at_birth, '') AS sex_at_birth,
+    COALESCE(p.race, '')         AS race,
+    p.id                         AS participant_row_id,
+    cg.study_row_id
+  FROM df_participant p
+  LEFT JOIN cg_map cg
+    ON cg.consent_row_id = p."consent_group.id"
+),
+diag_names AS (
+  SELECT x."participant.id" AS participant_row_id,
+         GROUP_CONCAT(x.diagnosis, ';') AS diagnoses
+  FROM (
+    SELECT DISTINCT "participant.id", COALESCE(diagnosis, '') AS diagnosis
+    FROM df_diagnosis
+    WHERE "participant.id" IS NOT NULL
+  ) x
+  GROUP BY x."participant.id"
+),
+diag_sites AS (
+  SELECT x."participant.id" AS participant_row_id,
+         GROUP_CONCAT(x.anatomic_site, ';') AS anatomic_sites
+  FROM (
+    SELECT DISTINCT "participant.id", COALESCE(anatomic_site, '') AS anatomic_site
+    FROM df_diagnosis
+    WHERE "participant.id" IS NOT NULL
+  ) x
+  GROUP BY x."participant.id"
+),
+diag_cats AS (
+  SELECT x."participant.id" AS participant_row_id,
+         GROUP_CONCAT(x.diagnosis_category, ';') AS diagnosis_categories
+  FROM (
+    SELECT DISTINCT "participant.id", COALESCE(diagnosis_category, '') AS diagnosis_category
+    FROM df_diagnosis
+    WHERE "participant.id" IS NOT NULL
+  ) x
+  GROUP BY x."participant.id"
+),
+diag_age AS (
+  SELECT
+    d."participant.id" AS participant_row_id,
+    GROUP_CONCAT(
+      CASE
+        WHEN COALESCE(CAST(d.age_at_diagnosis AS TEXT), '') IN ('', '-999') THEN NULL
+        ELSE CAST(d.age_at_diagnosis AS TEXT)
+      END, ';'
+    ) AS age_days
+  FROM df_diagnosis d
+  WHERE d."participant.id" IS NOT NULL
+  GROUP BY d."participant.id"
+),
+treats AS (
+  SELECT x."participant.id" AS participant_row_id,
+         GROUP_CONCAT(x.treatment_type, ';') AS treatment_types
+  FROM (
+    SELECT DISTINCT trt."participant.id", COALESCE(trt.treatment_type, '') AS treatment_type
+    FROM df_treatment trt
+    WHERE trt."participant.id" IS NOT NULL
+  ) x
+  GROUP BY x."participant.id"
+),
+surv AS (
+  SELECT
+    s."participant.id" AS participant_row_id,
+    COALESCE(s.last_known_survival_status, '') AS last_known_survival_status
+  FROM df_survival s
+),
+-- samples for TC02 filters
+smp AS (
+  SELECT
+    s.id               AS sample_row_id,
+    s."participant.id" AS participant_row_id,
+    UPPER(TRIM(COALESCE(s.anatomic_site, '')))       AS anatomic_site_u,
+    UPPER(TRIM(COALESCE(s.sample_tumor_status, ''))) AS tumor_status_u
+  FROM df_sample s
+)
+SELECT DISTINCT
+  prt.participant_id                    AS "Participant ID",
+  std.dbgap_accession                   AS "Study ID",
+  prt.sex_at_birth                      AS "Sex",
+  prt.race                              AS "Race",
+  COALESCE(dn.diagnoses, '')            AS "Diagnosis",
+  COALESCE(ds.anatomic_sites, '')       AS "Diagnosis Anatomic Site",
+  COALESCE(dc.diagnosis_categories, '') AS "Diagnosis Category",
+  CASE
+    WHEN TRIM(COALESCE(da.age_days, '')) = '' THEN 'Not Reported'
+    ELSE da.age_days
+  END                                    AS "Age at Diagnosis (days)",
+  COALESCE(t.treatment_types, '')        AS "Treatments",
+  COALESCE(sv.last_known_survival_status, '') AS "Last Known Survival Status"
+FROM df_study std
+JOIN prt
+  ON std.id = prt.study_row_id
+LEFT JOIN diag_names dn ON dn.participant_row_id = prt.participant_row_id
+LEFT JOIN diag_sites ds ON ds.participant_row_id = prt.participant_row_id
+LEFT JOIN diag_cats  dc ON dc.participant_row_id = prt.participant_row_id
+LEFT JOIN diag_age   da ON da.participant_row_id = prt.participant_row_id
+LEFT JOIN treats     t  ON t.participant_row_id  = prt.participant_row_id
+LEFT JOIN surv       sv ON sv.participant_row_id = prt.participant_row_id
+WHERE UPPER(TRIM(std.dbgap_accession)) LIKE UPPER(TRIM('phs000469%'))
+  -- Sex = Not Reported (include blanks as Not Reported to match UI)
+  AND (
+       UPPER(TRIM(COALESCE(prt.sex_at_birth,''))) = 'NOT REPORTED'
+    OR TRIM(COALESCE(prt.sex_at_birth,'')) = ''
+  )
+  -- Must have at least one matching sample: C42.0 : Blood + Normal
+  AND EXISTS (
+        SELECT 1
+        FROM smp
+        WHERE smp.participant_row_id = prt.participant_row_id
+          AND smp.anatomic_site_u = UPPER(TRIM('C42.0 : Blood'))
+          AND smp.tumor_status_u  = UPPER(TRIM('Normal'))
+      )
+ORDER BY prt.participant_id ASC;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -314,14 +524,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -647,19 +860,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.83203125" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" customWidth="1"/>
+    <col min="5" max="5" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -676,24 +889,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -702,33 +915,33 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
